--- a/TestMappingExportAuto.xlsx
+++ b/TestMappingExportAuto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gobi\workspace\ConnectorM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopin\eclipse-workspace\ConnectorM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4235D-6A3D-4C8B-8F42-B451B34999ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D1E06-040D-42FC-B4FC-DBBD1B4AE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C150EF12-69CB-4095-8569-5C9F6F0BD233}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{C150EF12-69CB-4095-8569-5C9F6F0BD233}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Url</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>egrdgrd.json</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -607,20 +613,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5665688C-1848-4FF6-93CC-0C33519A9548}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -630,8 +637,11 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -640,6 +650,9 @@
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884CF242-AA3A-4C31-9884-A9690C259127}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/TestMappingExportAuto.xlsx
+++ b/TestMappingExportAuto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopin\eclipse-workspace\ConnectorM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D1E06-040D-42FC-B4FC-DBBD1B4AE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE5239-F9F4-4922-9365-17DB97D82F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{C150EF12-69CB-4095-8569-5C9F6F0BD233}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{C150EF12-69CB-4095-8569-5C9F6F0BD233}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Url</t>
   </si>
@@ -51,15 +51,9 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>https://magict.connectyourflex.com/login.aspx</t>
-  </si>
-  <si>
     <t>soladmin</t>
   </si>
   <si>
-    <t>$0liD@321</t>
-  </si>
-  <si>
     <t>MandantName</t>
   </si>
   <si>
@@ -112,6 +106,21 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>https://pieterfloutlook-my.sharepoint.com/personal/connectoracc_solidonline_com/_layouts/15/onedrive.aspx</t>
+  </si>
+  <si>
+    <t>Connectoracc@solidonline.com</t>
+  </si>
+  <si>
+    <t>Flex@cc@Nl0129</t>
+  </si>
+  <si>
+    <t>https://magica.connectyourflex.com/login.aspx</t>
+  </si>
+  <si>
+    <t>AA5nWR*!5^cC95JS</t>
   </si>
 </sst>
 </file>
@@ -234,7 +243,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -247,6 +256,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -566,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D0A4EF-C05D-4D5F-96B8-EDA99A9E145F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,35 +605,38 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{04B5F7B8-4114-437F-AB1F-7AECDB6086F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5665688C-1848-4FF6-93CC-0C33519A9548}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="1" max="1" width="92.85546875" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" customWidth="1"/>
@@ -629,39 +644,55 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{132CA06F-32AD-47B7-84E5-6259499692D6}"/>
-    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:connectortest@solidonline.com" display="mailto:connectortest@solidonline.com" xr:uid="{2B63A5F5-8F95-4A58-82F1-FC6BACFD73DB}"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="mailto:connectortest@solidonline.com" display="mailto:connectortest@solidonline.com" xr:uid="{2B63A5F5-8F95-4A58-82F1-FC6BACFD73DB}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{1B4E06F9-E7E3-42C3-9A9E-6506F11283F1}"/>
+    <hyperlink ref="A2" r:id="rId3" tooltip="https://pieterfloutlook-my.sharepoint.com/personal/connectoracc_solidonline_com/_layouts/15/onedrive.aspx" xr:uid="{C1837DA7-3CF5-424E-AA92-726408748FD5}"/>
+    <hyperlink ref="B2" r:id="rId4" tooltip="mailto:Connectoracc@solidonline.com" display="mailto:Connectoracc@solidonline.com" xr:uid="{ECB4FFF6-0836-4CFE-9BAE-4951B79FA082}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -680,22 +711,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -719,34 +750,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
